--- a/output/1Y_P72_KFSDIV.xlsx
+++ b/output/1Y_P72_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>12.716</v>
       </c>
       <c r="C2" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D2" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>12.4613</v>
       </c>
       <c r="C3" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D3" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E3" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="F3" s="1">
-        <v>802.4845</v>
+        <v>800.8778</v>
       </c>
       <c r="H3" s="1">
-        <v>9799.7012</v>
+        <v>9760.546200000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9799.7012</v>
+        <v>9760.546200000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.02</v>
+        <v>-0.0239</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>12.6545</v>
       </c>
       <c r="C4" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D4" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E4" s="1">
-        <v>1588.8953</v>
+        <v>1585.7147</v>
       </c>
       <c r="F4" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="H4" s="1">
-        <v>20106.6757</v>
+        <v>20026.3082</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20106.6757</v>
+        <v>20026.3082</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.5874</v>
+        <v>12.6126</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0155</v>
+        <v>0.0134</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>12.2345</v>
       </c>
       <c r="C5" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D5" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E5" s="1">
-        <v>2379.128</v>
+        <v>2374.3645</v>
       </c>
       <c r="F5" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="H5" s="1">
-        <v>29107.442</v>
+        <v>28990.9901</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29107.442</v>
+        <v>28990.9901</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.6097</v>
+        <v>12.635</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>429.0017</v>
+        <v>428.143</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9570.998299999999</v>
+        <v>-9571.857</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0332</v>
+        <v>-0.0345</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>12.1636</v>
       </c>
       <c r="C6" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D6" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E6" s="1">
-        <v>3196.4888</v>
+        <v>3190.0917</v>
       </c>
       <c r="F6" s="1">
-        <v>826.5337</v>
+        <v>824.8702</v>
       </c>
       <c r="H6" s="1">
-        <v>38880.8109</v>
+        <v>38725.48</v>
       </c>
       <c r="I6" s="1">
-        <v>429.0017</v>
+        <v>428.143</v>
       </c>
       <c r="J6" s="1">
-        <v>39309.8126</v>
+        <v>39153.623</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.5137</v>
+        <v>12.5388</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10053.6252</v>
+        <v>-10053.5179</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0052</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>11.8145</v>
       </c>
       <c r="C7" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D7" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E7" s="1">
-        <v>4023.0225</v>
+        <v>4014.9619</v>
       </c>
       <c r="F7" s="1">
-        <v>850.9565</v>
+        <v>849.2438</v>
       </c>
       <c r="H7" s="1">
-        <v>47529.999</v>
+        <v>47340.014</v>
       </c>
       <c r="I7" s="1">
-        <v>375.3765</v>
+        <v>374.6251</v>
       </c>
       <c r="J7" s="1">
-        <v>47905.3755</v>
+        <v>47714.6391</v>
       </c>
       <c r="K7" s="1">
-        <v>50053.6252</v>
+        <v>50053.5179</v>
       </c>
       <c r="L7" s="1">
-        <v>12.4418</v>
+        <v>12.4667</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10053.6252</v>
+        <v>-10053.5179</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0285</v>
+        <v>-0.0293</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>11.2352</v>
       </c>
       <c r="C8" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D8" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E8" s="1">
-        <v>4873.9789</v>
+        <v>4864.2057</v>
       </c>
       <c r="F8" s="1">
-        <v>894.8248</v>
+        <v>893.0348</v>
       </c>
       <c r="H8" s="1">
-        <v>54760.1282</v>
+        <v>54540.8789</v>
       </c>
       <c r="I8" s="1">
-        <v>321.7513</v>
+        <v>321.1072</v>
       </c>
       <c r="J8" s="1">
-        <v>55081.8795</v>
+        <v>54861.9861</v>
       </c>
       <c r="K8" s="1">
-        <v>60107.2504</v>
+        <v>60107.0357</v>
       </c>
       <c r="L8" s="1">
-        <v>12.3323</v>
+        <v>12.357</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1086.2161</v>
+        <v>1084.0397</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8967.409100000001</v>
+        <v>-8969.4782</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0488</v>
+        <v>-0.0494</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>10.8241</v>
       </c>
       <c r="C9" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D9" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E9" s="1">
-        <v>5768.8038</v>
+        <v>5757.2405</v>
       </c>
       <c r="F9" s="1">
-        <v>948.8889</v>
+        <v>946.9404</v>
       </c>
       <c r="H9" s="1">
-        <v>62442.1087</v>
+        <v>62192.0144</v>
       </c>
       <c r="I9" s="1">
-        <v>1354.3422</v>
+        <v>1351.6291</v>
       </c>
       <c r="J9" s="1">
-        <v>63796.4509</v>
+        <v>63543.6435</v>
       </c>
       <c r="K9" s="1">
-        <v>70160.8757</v>
+        <v>70160.5536</v>
       </c>
       <c r="L9" s="1">
-        <v>12.1621</v>
+        <v>12.1865</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10270.8684</v>
+        <v>-10270.3258</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0198</v>
+        <v>-0.0203</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>11.2543</v>
       </c>
       <c r="C10" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D10" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E10" s="1">
-        <v>6717.6927</v>
+        <v>6704.1808</v>
       </c>
       <c r="F10" s="1">
-        <v>912.6173</v>
+        <v>910.7402</v>
       </c>
       <c r="H10" s="1">
-        <v>75602.92849999999</v>
+        <v>75300.0183</v>
       </c>
       <c r="I10" s="1">
-        <v>1083.4737</v>
+        <v>1081.3033</v>
       </c>
       <c r="J10" s="1">
-        <v>76686.4022</v>
+        <v>76381.32150000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80431.7441</v>
+        <v>80430.87940000001</v>
       </c>
       <c r="L10" s="1">
-        <v>11.9731</v>
+        <v>11.9971</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10270.8684</v>
+        <v>-10270.3258</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0392</v>
+        <v>0.0386</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>10.5675</v>
       </c>
       <c r="C11" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D11" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E11" s="1">
-        <v>7630.3099</v>
+        <v>7614.921</v>
       </c>
       <c r="F11" s="1">
-        <v>971.9206</v>
+        <v>969.9326</v>
       </c>
       <c r="H11" s="1">
-        <v>80633.30009999999</v>
+        <v>80310.00290000001</v>
       </c>
       <c r="I11" s="1">
-        <v>812.6053000000001</v>
+        <v>810.9774</v>
       </c>
       <c r="J11" s="1">
-        <v>81445.9054</v>
+        <v>81120.9803</v>
       </c>
       <c r="K11" s="1">
-        <v>90702.6125</v>
+        <v>90701.2052</v>
       </c>
       <c r="L11" s="1">
-        <v>11.8871</v>
+        <v>11.911</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1813.777</v>
+        <v>1810.1288</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8457.091399999999</v>
+        <v>-8460.197</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0605</v>
+        <v>-0.0609</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E12" s="1">
-        <v>8602.2305</v>
+        <v>8584.8536</v>
       </c>
       <c r="F12" s="1">
-        <v>1121.4766</v>
+        <v>1118.9937</v>
       </c>
       <c r="H12" s="1">
-        <v>85738.4319</v>
+        <v>85394.3977</v>
       </c>
       <c r="I12" s="1">
-        <v>2355.5139</v>
+        <v>2350.7805</v>
       </c>
       <c r="J12" s="1">
-        <v>88093.9458</v>
+        <v>87745.17819999999</v>
       </c>
       <c r="K12" s="1">
-        <v>100973.4809</v>
+        <v>100971.5311</v>
       </c>
       <c r="L12" s="1">
-        <v>11.7381</v>
+        <v>11.7616</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11177.7569</v>
+        <v>-11175.3902</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0367</v>
+        <v>-0.037</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>10.0064</v>
       </c>
       <c r="C13" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D13" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E13" s="1">
-        <v>9723.7071</v>
+        <v>9703.847400000001</v>
       </c>
       <c r="F13" s="1">
-        <v>1117.0608</v>
+        <v>1114.5854</v>
       </c>
       <c r="H13" s="1">
-        <v>97299.3029</v>
+        <v>96906.5013</v>
       </c>
       <c r="I13" s="1">
-        <v>1177.7569</v>
+        <v>1175.3902</v>
       </c>
       <c r="J13" s="1">
-        <v>98477.0598</v>
+        <v>98081.8915</v>
       </c>
       <c r="K13" s="1">
-        <v>112151.2379</v>
+        <v>112146.9213</v>
       </c>
       <c r="L13" s="1">
-        <v>11.5338</v>
+        <v>11.557</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11177.7569</v>
+        <v>-11175.3902</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0039</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>10.0129</v>
       </c>
       <c r="C14" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E14" s="1">
-        <v>10840.7679</v>
+        <v>10818.4327</v>
       </c>
       <c r="F14" s="1">
-        <v>-10840.7679</v>
+        <v>-10818.4327</v>
       </c>
       <c r="H14" s="1">
-        <v>108547.5248</v>
+        <v>108107.5165</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>108547.5248</v>
+        <v>108107.5165</v>
       </c>
       <c r="K14" s="1">
-        <v>123328.9948</v>
+        <v>123322.3115</v>
       </c>
       <c r="L14" s="1">
-        <v>11.3764</v>
+        <v>11.3993</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2625.4009</v>
+        <v>2620.0388</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>111172.9257</v>
+        <v>110727.5553</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0.0002</v>
       </c>
     </row>
   </sheetData>
@@ -1385,7 +1385,7 @@
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
@@ -1456,16 +1456,16 @@
         <v>12.716</v>
       </c>
       <c r="C2" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D2" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>12.4613</v>
       </c>
       <c r="C3" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D3" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E3" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="F3" s="1">
-        <v>802.4845</v>
+        <v>800.8778</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9799.7012</v>
+        <v>9760.546200000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9799.7012</v>
+        <v>9760.546200000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.02</v>
+        <v>-0.0239</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>12.6545</v>
       </c>
       <c r="C4" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D4" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E4" s="1">
-        <v>1588.8953</v>
+        <v>1585.7147</v>
       </c>
       <c r="F4" s="1">
-        <v>781.8029</v>
+        <v>789.7327</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20106.6757</v>
+        <v>20026.3082</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20106.6757</v>
+        <v>20026.3082</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.5874</v>
+        <v>12.6126</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9893.3243</v>
+        <v>-10013.7312</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0155</v>
+        <v>0.0134</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>12.2345</v>
       </c>
       <c r="C5" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D5" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E5" s="1">
-        <v>2370.6982</v>
+        <v>2375.4474</v>
       </c>
       <c r="F5" s="1">
-        <v>826.08</v>
+        <v>814.6070999999999</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>29004.3068</v>
+        <v>29004.2125</v>
       </c>
       <c r="I5" s="1">
-        <v>106.6757</v>
+        <v>-13.7312</v>
       </c>
       <c r="J5" s="1">
-        <v>29110.9825</v>
+        <v>28990.4813</v>
       </c>
       <c r="K5" s="1">
-        <v>29893.3243</v>
+        <v>30013.7312</v>
       </c>
       <c r="L5" s="1">
-        <v>12.6095</v>
+        <v>12.635</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>429.0017</v>
+        <v>428.143</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9677.674000000001</v>
+        <v>-9558.1258</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0331</v>
+        <v>-0.0345</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>12.1636</v>
       </c>
       <c r="C6" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D6" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E6" s="1">
-        <v>3196.7782</v>
+        <v>3190.0545</v>
       </c>
       <c r="F6" s="1">
-        <v>857.3943</v>
+        <v>855.6074</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>38884.3309</v>
+        <v>38725.0287</v>
       </c>
       <c r="I6" s="1">
-        <v>429.0017</v>
+        <v>428.143</v>
       </c>
       <c r="J6" s="1">
-        <v>39313.3327</v>
+        <v>39153.1716</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.5126</v>
+        <v>12.539</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10429.0017</v>
+        <v>-10428.143</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0052</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>11.8145</v>
       </c>
       <c r="C7" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D7" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E7" s="1">
-        <v>4054.1725</v>
+        <v>4045.6619</v>
       </c>
       <c r="F7" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>47898.021</v>
+        <v>47701.9949</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>47898.021</v>
+        <v>47701.9949</v>
       </c>
       <c r="K7" s="1">
-        <v>50429.0017</v>
+        <v>50428.143</v>
       </c>
       <c r="L7" s="1">
-        <v>12.4388</v>
+        <v>12.4647</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0287</v>
+        <v>-0.0295</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>11.2352</v>
       </c>
       <c r="C8" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D8" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E8" s="1">
-        <v>4900.59</v>
+        <v>4890.3849</v>
       </c>
       <c r="F8" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>55059.1092</v>
+        <v>54834.419</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>55059.1092</v>
+        <v>54834.419</v>
       </c>
       <c r="K8" s="1">
-        <v>60429.0017</v>
+        <v>60428.143</v>
       </c>
       <c r="L8" s="1">
-        <v>12.331</v>
+        <v>12.3565</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1094.6266</v>
+        <v>1092.3287</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8905.3734</v>
+        <v>-8907.6713</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.049</v>
+        <v>-0.0497</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>10.8241</v>
       </c>
       <c r="C9" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D9" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E9" s="1">
-        <v>5790.6419</v>
+        <v>5778.6658</v>
       </c>
       <c r="F9" s="1">
-        <v>1024.993</v>
+        <v>1022.7303</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>62678.4873</v>
+        <v>62423.4597</v>
       </c>
       <c r="I9" s="1">
-        <v>1094.6266</v>
+        <v>1092.3287</v>
       </c>
       <c r="J9" s="1">
-        <v>63773.1139</v>
+        <v>63515.7885</v>
       </c>
       <c r="K9" s="1">
-        <v>70429.00169999999</v>
+        <v>70428.143</v>
       </c>
       <c r="L9" s="1">
-        <v>12.1626</v>
+        <v>12.1876</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11094.6266</v>
+        <v>-11092.3287</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0198</v>
+        <v>-0.0203</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>11.2543</v>
       </c>
       <c r="C10" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D10" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E10" s="1">
-        <v>6815.6349</v>
+        <v>6801.3962</v>
       </c>
       <c r="F10" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>76705.2001</v>
+        <v>76391.9215</v>
       </c>
       <c r="I10" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>76705.2001</v>
+        <v>76391.9215</v>
       </c>
       <c r="K10" s="1">
-        <v>81523.6283</v>
+        <v>81520.47169999999</v>
       </c>
       <c r="L10" s="1">
-        <v>11.9613</v>
+        <v>11.9858</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0397</v>
+        <v>0.0391</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>10.5675</v>
       </c>
       <c r="C11" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D11" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E11" s="1">
-        <v>7704.1842</v>
+        <v>7688.1647</v>
       </c>
       <c r="F11" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>81413.9664</v>
+        <v>81082.4601</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>81413.9664</v>
+        <v>81082.4601</v>
       </c>
       <c r="K11" s="1">
-        <v>91523.6283</v>
+        <v>91520.47169999999</v>
       </c>
       <c r="L11" s="1">
-        <v>11.8797</v>
+        <v>11.9041</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1840.2214</v>
+        <v>1836.377</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8159.7786</v>
+        <v>-8163.623</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.061</v>
+        <v>-0.0615</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E12" s="1">
-        <v>8650.4728</v>
+        <v>8632.5677</v>
       </c>
       <c r="F12" s="1">
-        <v>1187.9424</v>
+        <v>1185.1784</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>86219.2628</v>
+        <v>85869.0141</v>
       </c>
       <c r="I12" s="1">
-        <v>1840.2214</v>
+        <v>1836.377</v>
       </c>
       <c r="J12" s="1">
-        <v>88059.48420000001</v>
+        <v>87705.391</v>
       </c>
       <c r="K12" s="1">
-        <v>101523.6283</v>
+        <v>101520.4717</v>
       </c>
       <c r="L12" s="1">
-        <v>11.7362</v>
+        <v>11.7602</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11840.2214</v>
+        <v>-11836.377</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0367</v>
+        <v>-0.0371</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>10.0064</v>
       </c>
       <c r="C13" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D13" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E13" s="1">
-        <v>9838.415199999999</v>
+        <v>9817.7461</v>
       </c>
       <c r="F13" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>98447.11780000001</v>
+        <v>98043.93979999999</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>98447.11780000001</v>
+        <v>98043.93979999999</v>
       </c>
       <c r="K13" s="1">
-        <v>113363.8497</v>
+        <v>113356.8487</v>
       </c>
       <c r="L13" s="1">
-        <v>11.5226</v>
+        <v>11.5461</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.004</v>
+        <v>0.0035</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,49 +2086,49 @@
         <v>10.0129</v>
       </c>
       <c r="C14" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E14" s="1">
-        <v>10837.7756</v>
+        <v>10815.1031</v>
       </c>
       <c r="F14" s="1">
-        <v>-10837.7756</v>
+        <v>-10815.1031</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>108517.5633</v>
+        <v>108074.244</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>108517.5633</v>
+        <v>108074.244</v>
       </c>
       <c r="K14" s="1">
-        <v>123363.8497</v>
+        <v>123356.8487</v>
       </c>
       <c r="L14" s="1">
-        <v>11.3828</v>
+        <v>11.406</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2656.3721</v>
+        <v>2650.7915</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>111173.9354</v>
+        <v>110725.0355</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0.0003</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>12.716</v>
       </c>
       <c r="C2" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D2" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>12.4613</v>
       </c>
       <c r="C3" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D3" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E3" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="F3" s="1">
-        <v>802.4845</v>
+        <v>800.8778</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9799.7012</v>
+        <v>9760.546200000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9799.7012</v>
+        <v>9760.546200000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.02</v>
+        <v>-0.0239</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>12.6545</v>
       </c>
       <c r="C4" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D4" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E4" s="1">
-        <v>1588.8953</v>
+        <v>1585.7147</v>
       </c>
       <c r="F4" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20106.6757</v>
+        <v>20026.3082</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20106.6757</v>
+        <v>20026.3082</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.5874</v>
+        <v>12.6126</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0155</v>
+        <v>0.0134</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>12.2345</v>
       </c>
       <c r="C5" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D5" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E5" s="1">
-        <v>2379.128</v>
+        <v>2374.3645</v>
       </c>
       <c r="F5" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29107.442</v>
+        <v>28990.9901</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29107.442</v>
+        <v>28990.9901</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.6097</v>
+        <v>12.635</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>429.0017</v>
+        <v>428.143</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9570.998299999999</v>
+        <v>-9571.857</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0332</v>
+        <v>-0.0345</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>12.1636</v>
       </c>
       <c r="C6" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D6" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E6" s="1">
-        <v>3196.4888</v>
+        <v>3190.0917</v>
       </c>
       <c r="F6" s="1">
-        <v>857.3943</v>
+        <v>855.6074</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>38880.8109</v>
+        <v>38725.48</v>
       </c>
       <c r="I6" s="1">
-        <v>429.0017</v>
+        <v>428.143</v>
       </c>
       <c r="J6" s="1">
-        <v>39309.8126</v>
+        <v>39153.623</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.5137</v>
+        <v>12.5388</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10429.0017</v>
+        <v>-10428.143</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0052</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>11.8145</v>
       </c>
       <c r="C7" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D7" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E7" s="1">
-        <v>4053.8831</v>
+        <v>4045.6991</v>
       </c>
       <c r="F7" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>47894.602</v>
+        <v>47702.4333</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>47894.602</v>
+        <v>47702.4333</v>
       </c>
       <c r="K7" s="1">
-        <v>50429.0017</v>
+        <v>50428.143</v>
       </c>
       <c r="L7" s="1">
-        <v>12.4397</v>
+        <v>12.4646</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2525,7 +2525,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0287</v>
+        <v>-0.0295</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>11.2352</v>
       </c>
       <c r="C8" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D8" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E8" s="1">
-        <v>4900.3007</v>
+        <v>4890.4221</v>
       </c>
       <c r="F8" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>55055.8579</v>
+        <v>54834.8359</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>55055.8579</v>
+        <v>54834.8359</v>
       </c>
       <c r="K8" s="1">
-        <v>60429.0017</v>
+        <v>60428.143</v>
       </c>
       <c r="L8" s="1">
-        <v>12.3317</v>
+        <v>12.3564</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1094.5484</v>
+        <v>1092.3388</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8905.4516</v>
+        <v>-8907.6612</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.049</v>
+        <v>-0.0497</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>10.8241</v>
       </c>
       <c r="C9" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D9" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E9" s="1">
-        <v>5790.3525</v>
+        <v>5778.703</v>
       </c>
       <c r="F9" s="1">
-        <v>1024.9858</v>
+        <v>1022.7313</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>62675.3549</v>
+        <v>62423.8614</v>
       </c>
       <c r="I9" s="1">
-        <v>1094.5484</v>
+        <v>1092.3388</v>
       </c>
       <c r="J9" s="1">
-        <v>63769.9034</v>
+        <v>63516.2001</v>
       </c>
       <c r="K9" s="1">
-        <v>70429.00169999999</v>
+        <v>70428.143</v>
       </c>
       <c r="L9" s="1">
-        <v>12.1632</v>
+        <v>12.1875</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11094.5484</v>
+        <v>-11092.3388</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0198</v>
+        <v>-0.0203</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>11.2543</v>
       </c>
       <c r="C10" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D10" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E10" s="1">
-        <v>6815.3383</v>
+        <v>6801.4343</v>
       </c>
       <c r="F10" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>76701.8619</v>
+        <v>76392.3495</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>76701.8619</v>
+        <v>76392.3495</v>
       </c>
       <c r="K10" s="1">
-        <v>81523.5502</v>
+        <v>81520.4817</v>
       </c>
       <c r="L10" s="1">
-        <v>11.9618</v>
+        <v>11.9858</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0397</v>
+        <v>0.0391</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>10.5675</v>
       </c>
       <c r="C11" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D11" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E11" s="1">
-        <v>7703.8876</v>
+        <v>7688.2028</v>
       </c>
       <c r="F11" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>81410.8319</v>
+        <v>81082.86199999999</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>81410.8319</v>
+        <v>81082.86199999999</v>
       </c>
       <c r="K11" s="1">
-        <v>91523.5502</v>
+        <v>91520.4817</v>
       </c>
       <c r="L11" s="1">
-        <v>11.8802</v>
+        <v>11.904</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1840.1413</v>
+        <v>1836.3873</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8159.8587</v>
+        <v>-8163.6127</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.061</v>
+        <v>-0.0615</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E12" s="1">
-        <v>8650.1762</v>
+        <v>8632.605799999999</v>
       </c>
       <c r="F12" s="1">
-        <v>1187.9343</v>
+        <v>1185.1795</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>86216.30650000001</v>
+        <v>85869.3931</v>
       </c>
       <c r="I12" s="1">
-        <v>1840.1413</v>
+        <v>1836.3873</v>
       </c>
       <c r="J12" s="1">
-        <v>88056.44779999999</v>
+        <v>87705.7804</v>
       </c>
       <c r="K12" s="1">
-        <v>101523.5502</v>
+        <v>101520.4817</v>
       </c>
       <c r="L12" s="1">
-        <v>11.7366</v>
+        <v>11.7601</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11840.1413</v>
+        <v>-11836.3873</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0367</v>
+        <v>-0.0371</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>10.0064</v>
       </c>
       <c r="C13" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D13" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E13" s="1">
-        <v>9838.110500000001</v>
+        <v>9817.7853</v>
       </c>
       <c r="F13" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>98444.06939999999</v>
+        <v>98044.33070000001</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>98444.06939999999</v>
+        <v>98044.33070000001</v>
       </c>
       <c r="K13" s="1">
-        <v>113363.6915</v>
+        <v>113356.869</v>
       </c>
       <c r="L13" s="1">
-        <v>11.5229</v>
+        <v>11.5461</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.004</v>
+        <v>0.0035</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,49 +2854,49 @@
         <v>10.0129</v>
       </c>
       <c r="C14" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E14" s="1">
-        <v>10837.471</v>
+        <v>10815.1423</v>
       </c>
       <c r="F14" s="1">
-        <v>-10837.471</v>
+        <v>-10815.1423</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>108514.5129</v>
+        <v>108074.6351</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>108514.5129</v>
+        <v>108074.6351</v>
       </c>
       <c r="K14" s="1">
-        <v>123363.6915</v>
+        <v>123356.869</v>
       </c>
       <c r="L14" s="1">
-        <v>11.3831</v>
+        <v>11.4059</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2656.2898</v>
+        <v>2650.802</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>111170.8028</v>
+        <v>110725.4371</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0.0003</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>12.716</v>
       </c>
       <c r="C2" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D2" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>12.4613</v>
       </c>
       <c r="C3" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D3" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E3" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="F3" s="1">
-        <v>802.4845</v>
+        <v>800.8778</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9799.7012</v>
+        <v>9760.546200000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9799.7012</v>
+        <v>9760.546200000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.02</v>
+        <v>-0.0239</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>12.6545</v>
       </c>
       <c r="C4" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D4" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E4" s="1">
-        <v>1588.8953</v>
+        <v>1585.7147</v>
       </c>
       <c r="F4" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20106.6757</v>
+        <v>20026.3082</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20106.6757</v>
+        <v>20026.3082</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.5874</v>
+        <v>12.6126</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0155</v>
+        <v>0.0134</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>12.2345</v>
       </c>
       <c r="C5" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D5" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E5" s="1">
-        <v>2379.128</v>
+        <v>2374.3645</v>
       </c>
       <c r="F5" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29107.442</v>
+        <v>28990.9901</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29107.442</v>
+        <v>28990.9901</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.6097</v>
+        <v>12.635</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>429.0017</v>
+        <v>428.143</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9570.998299999999</v>
+        <v>-9571.857</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0332</v>
+        <v>-0.0345</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>12.1636</v>
       </c>
       <c r="C6" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D6" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E6" s="1">
-        <v>3196.4888</v>
+        <v>3190.0917</v>
       </c>
       <c r="F6" s="1">
-        <v>857.3943</v>
+        <v>855.6074</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>38880.8109</v>
+        <v>38725.48</v>
       </c>
       <c r="I6" s="1">
-        <v>429.0017</v>
+        <v>428.143</v>
       </c>
       <c r="J6" s="1">
-        <v>39309.8126</v>
+        <v>39153.623</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.5137</v>
+        <v>12.5388</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10429.0017</v>
+        <v>-10428.143</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0052</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>11.8145</v>
       </c>
       <c r="C7" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D7" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E7" s="1">
-        <v>4053.8831</v>
+        <v>4045.6991</v>
       </c>
       <c r="F7" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>47894.602</v>
+        <v>47702.4333</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>47894.602</v>
+        <v>47702.4333</v>
       </c>
       <c r="K7" s="1">
-        <v>50429.0017</v>
+        <v>50428.143</v>
       </c>
       <c r="L7" s="1">
-        <v>12.4397</v>
+        <v>12.4646</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0287</v>
+        <v>-0.0295</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>11.2352</v>
       </c>
       <c r="C8" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D8" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E8" s="1">
-        <v>4900.3007</v>
+        <v>4890.4221</v>
       </c>
       <c r="F8" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>55055.8579</v>
+        <v>54834.8359</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>55055.8579</v>
+        <v>54834.8359</v>
       </c>
       <c r="K8" s="1">
-        <v>60429.0017</v>
+        <v>60428.143</v>
       </c>
       <c r="L8" s="1">
-        <v>12.3317</v>
+        <v>12.3564</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1094.5484</v>
+        <v>1092.3388</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8905.4516</v>
+        <v>-8907.6612</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.049</v>
+        <v>-0.0497</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>10.8241</v>
       </c>
       <c r="C9" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D9" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E9" s="1">
-        <v>5790.3525</v>
+        <v>5778.703</v>
       </c>
       <c r="F9" s="1">
-        <v>1024.9858</v>
+        <v>1022.7313</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>62675.3549</v>
+        <v>62423.8614</v>
       </c>
       <c r="I9" s="1">
-        <v>1094.5484</v>
+        <v>1092.3388</v>
       </c>
       <c r="J9" s="1">
-        <v>63769.9034</v>
+        <v>63516.2001</v>
       </c>
       <c r="K9" s="1">
-        <v>70429.00169999999</v>
+        <v>70428.143</v>
       </c>
       <c r="L9" s="1">
-        <v>12.1632</v>
+        <v>12.1875</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11094.5484</v>
+        <v>-11092.3388</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0198</v>
+        <v>-0.0203</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>11.2543</v>
       </c>
       <c r="C10" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D10" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E10" s="1">
-        <v>6815.3383</v>
+        <v>6801.4343</v>
       </c>
       <c r="F10" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>76701.8619</v>
+        <v>76392.3495</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>76701.8619</v>
+        <v>76392.3495</v>
       </c>
       <c r="K10" s="1">
-        <v>81523.5502</v>
+        <v>81520.4817</v>
       </c>
       <c r="L10" s="1">
-        <v>11.9618</v>
+        <v>11.9858</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0397</v>
+        <v>0.0391</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>10.5675</v>
       </c>
       <c r="C11" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D11" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E11" s="1">
-        <v>7703.8876</v>
+        <v>7688.2028</v>
       </c>
       <c r="F11" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>81410.8319</v>
+        <v>81082.86199999999</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>81410.8319</v>
+        <v>81082.86199999999</v>
       </c>
       <c r="K11" s="1">
-        <v>91523.5502</v>
+        <v>91520.4817</v>
       </c>
       <c r="L11" s="1">
-        <v>11.8802</v>
+        <v>11.904</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1840.1413</v>
+        <v>1836.3873</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8159.8587</v>
+        <v>-8163.6127</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.061</v>
+        <v>-0.0615</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E12" s="1">
-        <v>8650.1762</v>
+        <v>8632.605799999999</v>
       </c>
       <c r="F12" s="1">
-        <v>1187.9343</v>
+        <v>1185.1795</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>86216.30650000001</v>
+        <v>85869.3931</v>
       </c>
       <c r="I12" s="1">
-        <v>1840.1413</v>
+        <v>1836.3873</v>
       </c>
       <c r="J12" s="1">
-        <v>88056.44779999999</v>
+        <v>87705.7804</v>
       </c>
       <c r="K12" s="1">
-        <v>101523.5502</v>
+        <v>101520.4817</v>
       </c>
       <c r="L12" s="1">
-        <v>11.7366</v>
+        <v>11.7601</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11840.1413</v>
+        <v>-11836.3873</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0367</v>
+        <v>-0.0371</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>10.0064</v>
       </c>
       <c r="C13" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D13" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E13" s="1">
-        <v>9838.110500000001</v>
+        <v>9817.7853</v>
       </c>
       <c r="F13" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>98444.06939999999</v>
+        <v>98044.33070000001</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>98444.06939999999</v>
+        <v>98044.33070000001</v>
       </c>
       <c r="K13" s="1">
-        <v>113363.6915</v>
+        <v>113356.869</v>
       </c>
       <c r="L13" s="1">
-        <v>11.5229</v>
+        <v>11.5461</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3611,7 +3611,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.004</v>
+        <v>0.0035</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,49 +3622,49 @@
         <v>10.0129</v>
       </c>
       <c r="C14" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E14" s="1">
-        <v>10837.471</v>
+        <v>10815.1423</v>
       </c>
       <c r="F14" s="1">
-        <v>-10837.471</v>
+        <v>-10815.1423</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>108514.5129</v>
+        <v>108074.6351</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>108514.5129</v>
+        <v>108074.6351</v>
       </c>
       <c r="K14" s="1">
-        <v>123363.6915</v>
+        <v>123356.869</v>
       </c>
       <c r="L14" s="1">
-        <v>11.3831</v>
+        <v>11.4059</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2656.2898</v>
+        <v>2650.802</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>111170.8028</v>
+        <v>110725.4371</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0.0003</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>12.716</v>
       </c>
       <c r="C2" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D2" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>12.4613</v>
       </c>
       <c r="C3" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D3" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E3" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="F3" s="1">
-        <v>802.4845</v>
+        <v>800.8778</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9799.7012</v>
+        <v>9760.546200000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9799.7012</v>
+        <v>9760.546200000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.02</v>
+        <v>-0.0239</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>12.6545</v>
       </c>
       <c r="C4" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D4" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E4" s="1">
-        <v>1588.8953</v>
+        <v>1585.7147</v>
       </c>
       <c r="F4" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20106.6757</v>
+        <v>20026.3082</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20106.6757</v>
+        <v>20026.3082</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.5874</v>
+        <v>12.6126</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0155</v>
+        <v>0.0134</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>12.2345</v>
       </c>
       <c r="C5" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D5" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E5" s="1">
-        <v>2379.128</v>
+        <v>2374.3645</v>
       </c>
       <c r="F5" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>29107.442</v>
+        <v>28990.9901</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29107.442</v>
+        <v>28990.9901</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.6097</v>
+        <v>12.635</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>429.0017</v>
+        <v>428.143</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9570.998299999999</v>
+        <v>-9571.857</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0332</v>
+        <v>-0.0345</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>12.1636</v>
       </c>
       <c r="C6" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D6" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E6" s="1">
-        <v>3196.4888</v>
+        <v>3190.0917</v>
       </c>
       <c r="F6" s="1">
-        <v>857.3943</v>
+        <v>855.6074</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>38880.8109</v>
+        <v>38725.48</v>
       </c>
       <c r="I6" s="1">
-        <v>429.0017</v>
+        <v>428.143</v>
       </c>
       <c r="J6" s="1">
-        <v>39309.8126</v>
+        <v>39153.623</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.5137</v>
+        <v>12.5388</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10429.0017</v>
+        <v>-10428.143</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0052</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>11.8145</v>
       </c>
       <c r="C7" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D7" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E7" s="1">
-        <v>4053.8831</v>
+        <v>4045.6991</v>
       </c>
       <c r="F7" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>47894.602</v>
+        <v>47702.4333</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>47894.602</v>
+        <v>47702.4333</v>
       </c>
       <c r="K7" s="1">
-        <v>50429.0017</v>
+        <v>50428.143</v>
       </c>
       <c r="L7" s="1">
-        <v>12.4397</v>
+        <v>12.4646</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0287</v>
+        <v>-0.0295</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>11.2352</v>
       </c>
       <c r="C8" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D8" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E8" s="1">
-        <v>4900.3007</v>
+        <v>4890.4221</v>
       </c>
       <c r="F8" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>55055.8579</v>
+        <v>54834.8359</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>55055.8579</v>
+        <v>54834.8359</v>
       </c>
       <c r="K8" s="1">
-        <v>60429.0017</v>
+        <v>60428.143</v>
       </c>
       <c r="L8" s="1">
-        <v>12.3317</v>
+        <v>12.3564</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1094.5484</v>
+        <v>1092.3388</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8905.4516</v>
+        <v>-8907.6612</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.049</v>
+        <v>-0.0497</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>10.8241</v>
       </c>
       <c r="C9" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D9" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E9" s="1">
-        <v>5790.3525</v>
+        <v>5778.703</v>
       </c>
       <c r="F9" s="1">
-        <v>1024.9858</v>
+        <v>1022.7313</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>62675.3549</v>
+        <v>62423.8614</v>
       </c>
       <c r="I9" s="1">
-        <v>1094.5484</v>
+        <v>1092.3388</v>
       </c>
       <c r="J9" s="1">
-        <v>63769.9034</v>
+        <v>63516.2001</v>
       </c>
       <c r="K9" s="1">
-        <v>70429.00169999999</v>
+        <v>70428.143</v>
       </c>
       <c r="L9" s="1">
-        <v>12.1632</v>
+        <v>12.1875</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11094.5484</v>
+        <v>-11092.3388</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0198</v>
+        <v>-0.0203</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>11.2543</v>
       </c>
       <c r="C10" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D10" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E10" s="1">
-        <v>6815.3383</v>
+        <v>6801.4343</v>
       </c>
       <c r="F10" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>76701.8619</v>
+        <v>76392.3495</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>76701.8619</v>
+        <v>76392.3495</v>
       </c>
       <c r="K10" s="1">
-        <v>81523.5502</v>
+        <v>81520.4817</v>
       </c>
       <c r="L10" s="1">
-        <v>11.9618</v>
+        <v>11.9858</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0397</v>
+        <v>0.0391</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>10.5675</v>
       </c>
       <c r="C11" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D11" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E11" s="1">
-        <v>7703.8876</v>
+        <v>7688.2028</v>
       </c>
       <c r="F11" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>81410.8319</v>
+        <v>81082.86199999999</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>81410.8319</v>
+        <v>81082.86199999999</v>
       </c>
       <c r="K11" s="1">
-        <v>91523.5502</v>
+        <v>91520.4817</v>
       </c>
       <c r="L11" s="1">
-        <v>11.8802</v>
+        <v>11.904</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1840.1413</v>
+        <v>1836.3873</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8159.8587</v>
+        <v>-8163.6127</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.061</v>
+        <v>-0.0615</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E12" s="1">
-        <v>8650.1762</v>
+        <v>8632.605799999999</v>
       </c>
       <c r="F12" s="1">
-        <v>1187.9343</v>
+        <v>1185.1795</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>86216.30650000001</v>
+        <v>85869.3931</v>
       </c>
       <c r="I12" s="1">
-        <v>1840.1413</v>
+        <v>1836.3873</v>
       </c>
       <c r="J12" s="1">
-        <v>88056.44779999999</v>
+        <v>87705.7804</v>
       </c>
       <c r="K12" s="1">
-        <v>101523.5502</v>
+        <v>101520.4817</v>
       </c>
       <c r="L12" s="1">
-        <v>11.7366</v>
+        <v>11.7601</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11840.1413</v>
+        <v>-11836.3873</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0367</v>
+        <v>-0.0371</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>10.0064</v>
       </c>
       <c r="C13" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D13" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E13" s="1">
-        <v>9838.110500000001</v>
+        <v>9817.7853</v>
       </c>
       <c r="F13" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>98444.06939999999</v>
+        <v>98044.33070000001</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>98444.06939999999</v>
+        <v>98044.33070000001</v>
       </c>
       <c r="K13" s="1">
-        <v>113363.6915</v>
+        <v>113356.869</v>
       </c>
       <c r="L13" s="1">
-        <v>11.5229</v>
+        <v>11.5461</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.004</v>
+        <v>0.0035</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,49 +4390,49 @@
         <v>10.0129</v>
       </c>
       <c r="C14" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E14" s="1">
-        <v>10837.471</v>
+        <v>10815.1423</v>
       </c>
       <c r="F14" s="1">
-        <v>-10837.471</v>
+        <v>-10815.1423</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>108514.5129</v>
+        <v>108074.6351</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>108514.5129</v>
+        <v>108074.6351</v>
       </c>
       <c r="K14" s="1">
-        <v>123363.6915</v>
+        <v>123356.869</v>
       </c>
       <c r="L14" s="1">
-        <v>11.3831</v>
+        <v>11.4059</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2656.2898</v>
+        <v>2650.802</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>111170.8028</v>
+        <v>110725.4371</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0.0003</v>
       </c>
     </row>
   </sheetData>
@@ -4452,9 +4452,9 @@
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>11.3764</v>
+        <v>11.3993</v>
       </c>
       <c r="D3" s="1">
-        <v>11.3828</v>
+        <v>11.406</v>
       </c>
       <c r="E3" s="1">
-        <v>11.3831</v>
+        <v>11.4059</v>
       </c>
       <c r="F3" s="1">
-        <v>11.3831</v>
+        <v>11.4059</v>
       </c>
       <c r="G3" s="1">
-        <v>11.3831</v>
+        <v>11.4059</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.2313</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.1829</v>
+        <v>-0.1955</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.1833</v>
+        <v>-0.196</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.1834</v>
+        <v>-0.196</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.1834</v>
+        <v>-0.196</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1834</v>
+        <v>-0.196</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1021</v>
       </c>
       <c r="C5" s="3">
-        <v>0.0954</v>
+        <v>0.09520000000000001</v>
       </c>
       <c r="D5" s="3">
-        <v>0.09619999999999999</v>
+        <v>0.096</v>
       </c>
       <c r="E5" s="3">
-        <v>0.09619999999999999</v>
+        <v>0.096</v>
       </c>
       <c r="F5" s="3">
-        <v>0.09619999999999999</v>
+        <v>0.096</v>
       </c>
       <c r="G5" s="3">
-        <v>0.09619999999999999</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-2.4639</v>
       </c>
       <c r="C6" s="4">
-        <v>-2.1297</v>
+        <v>-2.2663</v>
       </c>
       <c r="D6" s="4">
-        <v>-2.1175</v>
+        <v>-2.2548</v>
       </c>
       <c r="E6" s="4">
-        <v>-2.1182</v>
+        <v>-2.2547</v>
       </c>
       <c r="F6" s="4">
-        <v>-2.1182</v>
+        <v>-2.2547</v>
       </c>
       <c r="G6" s="4">
-        <v>-2.1182</v>
+        <v>-2.2547</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.1342</v>
+        <v>-0.1408</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.1335</v>
+        <v>-0.1401</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.1335</v>
+        <v>-0.1401</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.1335</v>
+        <v>-0.1401</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.1335</v>
+        <v>-0.1401</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>5954.3957</v>
+        <v>5942.3503</v>
       </c>
       <c r="D8" s="1">
-        <v>6020.2218</v>
+        <v>6007.6401</v>
       </c>
       <c r="E8" s="1">
-        <v>6019.9814</v>
+        <v>6007.671</v>
       </c>
       <c r="F8" s="1">
-        <v>6019.9814</v>
+        <v>6007.671</v>
       </c>
       <c r="G8" s="1">
-        <v>6019.9814</v>
+        <v>6007.671</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P72_KFSDIV.xlsx
+++ b/output/1Y_P72_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>6989.8946</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.8771</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.8763</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.8764</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.8764</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.8764</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
